--- a/data/forecast_data.xlsx
+++ b/data/forecast_data.xlsx
@@ -28,25 +28,25 @@
     <t>Avg_for_7_days</t>
   </si>
   <si>
-    <t>Forecast and Heat Map for Chat for Aug 11–Aug 17</t>
+    <t>Forecast and Heat Map for Chat for Aug 18–Aug 25</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
   <si>
-    <t>Forecast and Heat Map for Phone for Aug 11–Aug 17</t>
+    <t>Forecast and Heat Map for Phone for Aug 18–Aug 25</t>
   </si>
   <si>
     <t>Phone59</t>
   </si>
   <si>
-    <t>Forecast and Heat Map for Phone59 for Aug 11–Aug 17</t>
+    <t>Forecast and Heat Map for Phone59 for Aug 18–Aug 25</t>
   </si>
   <si>
     <t>Self-service</t>
   </si>
   <si>
-    <t>Forecast and Heat Map for Self-service for Aug 11–Aug 17</t>
+    <t>Forecast and Heat Map for Self-service for Aug 18–Aug 25</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -458,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -469,7 +469,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -480,10 +480,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -491,10 +491,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -502,10 +502,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -513,10 +513,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -524,10 +524,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -535,10 +535,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -546,10 +546,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -557,10 +557,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -568,10 +568,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -579,10 +579,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -601,10 +601,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -612,10 +612,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -623,10 +623,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -634,10 +634,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -667,10 +667,10 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -689,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -760,10 +760,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -782,10 +782,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -793,10 +793,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -804,10 +804,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -815,10 +815,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -826,10 +826,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -837,10 +837,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -848,10 +848,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -859,10 +859,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -870,10 +870,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -881,10 +881,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -892,10 +892,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -903,10 +903,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -914,10 +914,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -925,10 +925,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -936,10 +936,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -947,10 +947,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -969,10 +969,10 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -980,10 +980,10 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -991,10 +991,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1002,10 +1002,10 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1013,10 +1013,10 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1073,10 +1073,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1084,10 +1084,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1095,10 +1095,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1106,10 +1106,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1117,10 +1117,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1128,10 +1128,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1139,10 +1139,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1150,10 +1150,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1161,10 +1161,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1172,10 +1172,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1183,10 +1183,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="C13">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1194,10 +1194,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1205,10 +1205,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1216,10 +1216,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1227,10 +1227,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>148</v>
+        <v>185</v>
       </c>
       <c r="C17">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1238,10 +1238,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1249,10 +1249,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1260,10 +1260,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -1293,7 +1293,7 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -1304,10 +1304,10 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1315,10 +1315,10 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1326,10 +1326,10 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1386,10 +1386,10 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1397,10 +1397,10 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1408,10 +1408,10 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1419,10 +1419,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1430,10 +1430,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1441,10 +1441,10 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1452,10 +1452,10 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1474,10 +1474,10 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1485,10 +1485,10 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="C12">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1496,10 +1496,10 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="C13">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1507,10 +1507,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1518,10 +1518,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1529,10 +1529,10 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>257</v>
+        <v>313</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1540,10 +1540,10 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="C17">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1551,10 +1551,10 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1562,10 +1562,10 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="C19">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1573,10 +1573,10 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C22">
         <v>24</v>
@@ -1606,10 +1606,10 @@
         <v>2</v>
       </c>
       <c r="B23">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C23">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1617,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="B24">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -1628,10 +1628,10 @@
         <v>4</v>
       </c>
       <c r="B25">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
